--- a/ig/ch-lab-order/StructureDefinition-ch-lab-order-composition-with-sr.xlsx
+++ b/ig/ch-lab-order/StructureDefinition-ch-lab-order-composition-with-sr.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -573,7 +573,7 @@
     <t>Key metadata element describing the composition, used in searching/filtering.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.typeCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.typeCode</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -606,7 +606,7 @@
     <t>Helps humans to assess whether the composition is of interest when viewing an index of compositions or documents.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.classCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.classCode</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -1019,7 +1019,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1282,7 +1282,7 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>
@@ -1349,7 +1349,7 @@
     <t>Composition.section.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1566,7 +1566,7 @@
     <t>ServiceRequest</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-order-SR-singletest|http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-order-SR-container)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-order-SR)
 </t>
   </si>
   <si>
@@ -1976,15 +1976,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.4296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.05859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1995,27 +1995,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.28515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.96875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-lab-order/StructureDefinition-ch-lab-order-composition-with-sr.xlsx
+++ b/ig/ch-lab-order/StructureDefinition-ch-lab-order-composition-with-sr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4009" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4009" uniqueCount="522">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH LAB-Order Composition with Service Request</t>
+    <t>CH LAB-Order Composition with ServiceRequest</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2019-01-30</t>
+    <t>2025-12-16T11:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Definition for Composition resource in the context of CH LAB-Order with Service Request, parent is CHCoreComposition</t>
+    <t>Definition of the Composition resource using ServiceRequest.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -271,9 +271,6 @@
 </t>
   </si>
   <si>
-    <t>CH LAB-Order Composition with ServiceRequest</t>
-  </si>
-  <si>
     <t>A set of healthcare-related information that is assembled together into a single logical package that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. A Composition defines the structure and narrative content necessary for a document. However, a Composition alone does not constitute a document. Rather, the Composition must be the first entry in a Bundle where Bundle.type=document, and any other resources referenced from Composition must be included as subsequent entries in the Bundle (for example Patient, Practitioner, Encounter, etc.).</t>
   </si>
   <si>
@@ -382,7 +379,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -722,7 +719,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1260,7 +1257,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1343,7 +1340,7 @@
     <t>Classification of a section of a composition/document.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-section-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/doc-section-codes|4.0.1</t>
   </si>
   <si>
     <t>Composition.section.author</t>
@@ -1435,7 +1432,7 @@
     <t>What order applies to the items in the entry.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-order</t>
+    <t>http://hl7.org/fhir/ValueSet/list-order|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].sequenceNumber &gt; 1</t>
@@ -1481,7 +1478,7 @@
     <t>If a section is empty, why it is empty.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-empty-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/list-empty-reason|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ,code&lt;ListEmptyReason].value[type=CD]</t>
@@ -1612,7 +1609,7 @@
     <t>DocumentReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-document-reference)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-lab-order/StructureDefinition/ch-lab-order-document-reference)
 </t>
   </si>
   <si>
@@ -2174,13 +2171,13 @@
         <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2242,19 +2239,19 @@
         <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>80</v>
@@ -2262,10 +2259,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2276,28 +2273,28 @@
         <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2347,13 +2344,13 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>80</v>
@@ -2379,10 +2376,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2393,25 +2390,25 @@
         <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2462,19 +2459,19 @@
         <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -2494,10 +2491,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2508,28 +2505,28 @@
         <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2579,19 +2576,19 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>80</v>
@@ -2611,10 +2608,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2625,7 +2622,7 @@
         <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>80</v>
@@ -2637,16 +2634,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2672,43 +2669,43 @@
         <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2728,21 +2725,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>80</v>
@@ -2754,16 +2751,16 @@
         <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2813,25 +2810,25 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>80</v>
@@ -2845,14 +2842,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2871,16 +2868,16 @@
         <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2930,7 +2927,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -2948,7 +2945,7 @@
         <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>80</v>
@@ -2962,14 +2959,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2988,16 +2985,16 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3047,7 +3044,7 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -3059,13 +3056,13 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>80</v>
@@ -3079,14 +3076,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3099,25 +3096,25 @@
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>80</v>
@@ -3166,7 +3163,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3178,13 +3175,13 @@
         <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>80</v>
@@ -3198,10 +3195,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3212,28 +3209,28 @@
         <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3283,42 +3280,42 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3326,34 +3323,34 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="J12" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>80</v>
@@ -3378,66 +3375,66 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AN12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>172</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3445,34 +3442,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3497,64 +3494,64 @@
         <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3562,34 +3559,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3614,11 +3611,11 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3636,7 +3633,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3648,30 +3645,30 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AM14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AO14" t="s" s="2">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="B15" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3679,34 +3676,34 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="I15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -3755,42 +3752,42 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3801,7 +3798,7 @@
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3813,13 +3810,13 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3870,13 +3867,13 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
@@ -3888,7 +3885,7 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
@@ -3902,14 +3899,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3928,16 +3925,16 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3975,19 +3972,19 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AC17" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AC17" t="s" s="2">
+      <c r="AD17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AD17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3999,13 +3996,13 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
@@ -4019,10 +4016,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4030,31 +4027,31 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4104,25 +4101,25 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="AJ18" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -4136,10 +4133,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4150,28 +4147,28 @@
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4197,49 +4194,49 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -4253,10 +4250,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4267,28 +4264,28 @@
         <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4338,25 +4335,25 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -4370,10 +4367,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4384,28 +4381,28 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4455,25 +4452,25 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -4487,10 +4484,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4501,29 +4498,29 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4572,42 +4569,42 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>249</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4615,34 +4612,34 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4691,42 +4688,42 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AO23" t="s" s="2">
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
         <v>260</v>
       </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="B24" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4734,32 +4731,32 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="I24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K24" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4808,10 +4805,10 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>82</v>
@@ -4820,30 +4817,30 @@
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4854,7 +4851,7 @@
         <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4866,13 +4863,13 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4923,13 +4920,13 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
@@ -4941,7 +4938,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4955,14 +4952,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4981,16 +4978,16 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="M26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5028,19 +5025,19 @@
         <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AC26" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AC26" t="s" s="2">
+      <c r="AD26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AD26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5052,13 +5049,13 @@
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5072,10 +5069,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5083,31 +5080,31 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5157,25 +5154,25 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="AJ27" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5189,10 +5186,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5203,28 +5200,28 @@
         <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5250,49 +5247,49 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -5306,10 +5303,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5320,28 +5317,28 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5391,25 +5388,25 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5423,10 +5420,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5437,28 +5434,28 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5508,25 +5505,25 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5538,12 +5535,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5551,31 +5548,31 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H31" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="I31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5625,31 +5622,31 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -5657,10 +5654,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5671,28 +5668,28 @@
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K32" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5718,55 +5715,55 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Z32" t="s" s="2">
+      <c r="AA32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AA32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5774,10 +5771,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5800,19 +5797,19 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5861,7 +5858,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5873,19 +5870,19 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5893,10 +5890,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5907,7 +5904,7 @@
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5919,13 +5916,13 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5976,13 +5973,13 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
@@ -5994,7 +5991,7 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -6008,14 +6005,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6034,16 +6031,16 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6093,7 +6090,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6105,13 +6102,13 @@
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6125,14 +6122,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6145,25 +6142,25 @@
         <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="N36" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6212,7 +6209,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6224,13 +6221,13 @@
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6244,10 +6241,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6255,10 +6252,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6270,17 +6267,17 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6305,52 +6302,52 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Z37" t="s" s="2">
+      <c r="AA37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AA37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6361,10 +6358,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6375,7 +6372,7 @@
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6387,17 +6384,17 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6446,28 +6443,28 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6478,10 +6475,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6492,7 +6489,7 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6504,17 +6501,17 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6563,42 +6560,42 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO39" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>329</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6609,7 +6606,7 @@
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6621,13 +6618,13 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6678,13 +6675,13 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
@@ -6696,7 +6693,7 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6710,14 +6707,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6736,16 +6733,16 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="M41" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6783,19 +6780,19 @@
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AC41" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AC41" t="s" s="2">
+      <c r="AD41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AD41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE41" t="s" s="2">
+      <c r="AF41" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6807,13 +6804,13 @@
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6827,10 +6824,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6838,31 +6835,31 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6912,25 +6909,25 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI42" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6944,10 +6941,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6958,28 +6955,28 @@
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7005,49 +7002,49 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Z43" t="s" s="2">
+      <c r="AA43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AA43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -7061,10 +7058,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7075,28 +7072,28 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J44" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K44" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7146,25 +7143,25 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7178,10 +7175,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7192,28 +7189,28 @@
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K45" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7263,25 +7260,25 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7295,10 +7292,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7309,31 +7306,31 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K46" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7382,31 +7379,31 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7414,10 +7411,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7428,7 +7425,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7440,13 +7437,13 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7497,13 +7494,13 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
@@ -7515,7 +7512,7 @@
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -7529,14 +7526,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7555,16 +7552,16 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="M48" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7602,19 +7599,19 @@
         <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AC48" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AC48" t="s" s="2">
+      <c r="AD48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AD48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE48" t="s" s="2">
+      <c r="AF48" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7626,13 +7623,13 @@
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7646,10 +7643,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7657,31 +7654,31 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K49" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7731,25 +7728,25 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI49" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="AJ49" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7763,10 +7760,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7777,28 +7774,28 @@
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K50" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7824,49 +7821,49 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Z50" t="s" s="2">
+      <c r="AA50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AA50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7880,10 +7877,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7894,28 +7891,28 @@
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K51" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7965,25 +7962,25 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7997,10 +7994,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8011,28 +8008,28 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J52" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K52" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8082,25 +8079,25 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -8114,10 +8111,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8140,16 +8137,16 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8199,7 +8196,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8211,19 +8208,19 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8231,10 +8228,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8245,7 +8242,7 @@
         <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8257,13 +8254,13 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8314,13 +8311,13 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
@@ -8332,7 +8329,7 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8346,14 +8343,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8372,16 +8369,16 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8431,7 +8428,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8443,13 +8440,13 @@
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8463,14 +8460,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8483,25 +8480,25 @@
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="N56" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8550,7 +8547,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8562,13 +8559,13 @@
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8582,10 +8579,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8593,10 +8590,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8608,16 +8605,16 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8643,55 +8640,55 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z57" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="Z57" t="s" s="2">
+      <c r="AA57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AA57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -8699,10 +8696,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8710,10 +8707,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8725,13 +8722,13 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8782,31 +8779,31 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -8814,10 +8811,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8837,22 +8834,22 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8901,7 +8898,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -8913,19 +8910,19 @@
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -8933,10 +8930,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8947,7 +8944,7 @@
         <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8959,13 +8956,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9016,13 +9013,13 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
@@ -9034,7 +9031,7 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -9048,14 +9045,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9074,16 +9071,16 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L61" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="M61" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9133,7 +9130,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9145,13 +9142,13 @@
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -9165,14 +9162,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9185,25 +9182,25 @@
         <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="N62" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9252,7 +9249,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9264,13 +9261,13 @@
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
@@ -9284,10 +9281,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9307,19 +9304,19 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9345,14 +9342,14 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9369,7 +9366,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9381,19 +9378,19 @@
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9401,10 +9398,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9415,25 +9412,25 @@
         <v>81</v>
       </c>
       <c r="G64" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J64" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K64" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9484,31 +9481,31 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9516,10 +9513,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9539,16 +9536,16 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9599,7 +9596,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9611,16 +9608,16 @@
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -9631,10 +9628,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9642,13 +9639,13 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
@@ -9657,13 +9654,13 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9702,17 +9699,17 @@
         <v>80</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -9724,16 +9721,16 @@
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AK66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -9744,10 +9741,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9758,7 +9755,7 @@
         <v>81</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9770,13 +9767,13 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9827,13 +9824,13 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
@@ -9845,7 +9842,7 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -9859,14 +9856,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9885,16 +9882,16 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="M68" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9944,7 +9941,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -9956,13 +9953,13 @@
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -9976,14 +9973,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9996,25 +9993,25 @@
         <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="N69" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10063,7 +10060,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10075,13 +10072,13 @@
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10095,21 +10092,21 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -10121,19 +10118,19 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10182,28 +10179,28 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10214,10 +10211,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10228,7 +10225,7 @@
         <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10240,19 +10237,19 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10277,14 +10274,14 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10301,28 +10298,28 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10333,10 +10330,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10359,17 +10356,17 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10418,7 +10415,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10430,30 +10427,30 @@
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AM72" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10464,7 +10461,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -10476,16 +10473,16 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10535,19 +10532,19 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
@@ -10556,7 +10553,7 @@
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -10567,10 +10564,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10581,7 +10578,7 @@
         <v>81</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10593,16 +10590,16 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10652,28 +10649,28 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AJ74" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>443</v>
-      </c>
       <c r="AM74" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -10684,10 +10681,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10698,7 +10695,7 @@
         <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -10710,19 +10707,19 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -10747,66 +10744,66 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y75" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Z75" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="Z75" t="s" s="2">
+      <c r="AA75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AA75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>451</v>
-      </c>
       <c r="AM75" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10817,7 +10814,7 @@
         <v>81</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -10829,19 +10826,19 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -10866,52 +10863,52 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Z76" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Z76" t="s" s="2">
+      <c r="AA76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AA76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="AM76" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>80</v>
@@ -10922,10 +10919,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10948,16 +10945,16 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11007,7 +11004,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11016,19 +11013,19 @@
         <v>82</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AJ77" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
@@ -11039,10 +11036,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11053,7 +11050,7 @@
         <v>81</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
@@ -11065,19 +11062,19 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="N78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11102,52 +11099,52 @@
         <v>80</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z78" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Z78" t="s" s="2">
+      <c r="AA78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AA78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>474</v>
-      </c>
       <c r="AM78" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>80</v>
@@ -11158,10 +11155,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11187,13 +11184,13 @@
         <v>83</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11243,7 +11240,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11252,50 +11249,50 @@
         <v>82</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AM79" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="AN79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
+      <c r="B80" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C80" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H80" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G80" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="I80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11303,13 +11300,13 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11360,7 +11357,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -11372,16 +11369,16 @@
         <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AK80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL80" t="s" s="2">
+      <c r="AM80" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>80</v>
@@ -11392,10 +11389,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11406,7 +11403,7 @@
         <v>81</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -11418,13 +11415,13 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11475,13 +11472,13 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
@@ -11493,7 +11490,7 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
@@ -11507,14 +11504,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11533,16 +11530,16 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L82" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="M82" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11592,7 +11589,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -11604,13 +11601,13 @@
         <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
@@ -11624,14 +11621,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11644,25 +11641,25 @@
         <v>80</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="N83" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -11711,7 +11708,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -11723,13 +11720,13 @@
         <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
@@ -11741,27 +11738,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H84" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G84" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="I84" t="s" s="2">
         <v>80</v>
       </c>
@@ -11769,19 +11766,19 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M84" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="N84" t="s" s="2">
+      <c r="O84" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -11830,29 +11827,29 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AM84" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="AN84" t="s" s="2">
         <v>80</v>
       </c>
@@ -11860,12 +11857,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11873,14 +11870,14 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H85" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G85" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="I85" t="s" s="2">
         <v>80</v>
       </c>
@@ -11888,19 +11885,19 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -11910,7 +11907,7 @@
         <v>80</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>80</v>
@@ -11925,14 +11922,14 @@
         <v>80</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Y85" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z85" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Z85" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="AA85" t="s" s="2">
         <v>80</v>
       </c>
@@ -11949,28 +11946,28 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>80</v>
@@ -11981,10 +11978,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12007,17 +12004,17 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12066,7 +12063,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12078,30 +12075,30 @@
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AM86" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="AN86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12112,7 +12109,7 @@
         <v>81</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -12124,16 +12121,16 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12183,19 +12180,19 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -12204,21 +12201,21 @@
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B88" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12229,11 +12226,11 @@
         <v>81</v>
       </c>
       <c r="G88" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H88" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H88" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="I88" t="s" s="2">
         <v>80</v>
       </c>
@@ -12241,16 +12238,16 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12300,28 +12297,28 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI88" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AJ88" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>443</v>
-      </c>
       <c r="AM88" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>80</v>
@@ -12332,10 +12329,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12346,7 +12343,7 @@
         <v>81</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
@@ -12358,19 +12355,19 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -12395,66 +12392,66 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Z89" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="Z89" t="s" s="2">
+      <c r="AA89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AA89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>451</v>
-      </c>
       <c r="AM89" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12465,7 +12462,7 @@
         <v>81</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -12477,19 +12474,19 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -12514,52 +12511,52 @@
         <v>80</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y90" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Z90" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="Z90" t="s" s="2">
+      <c r="AA90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AA90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="AM90" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>80</v>
@@ -12570,10 +12567,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12581,13 +12578,13 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>80</v>
@@ -12596,16 +12593,16 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12643,17 +12640,17 @@
         <v>80</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AC91" s="2"/>
       <c r="AD91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>81</v>
@@ -12662,20 +12659,20 @@
         <v>82</v>
       </c>
       <c r="AI91" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AJ91" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL91" t="s" s="2">
+      <c r="AM91" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AM91" t="s" s="2">
-        <v>466</v>
-      </c>
       <c r="AN91" t="s" s="2">
         <v>80</v>
       </c>
@@ -12683,28 +12680,28 @@
         <v>80</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C92" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C92" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>80</v>
@@ -12713,16 +12710,16 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M92" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N92" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12772,7 +12769,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -12781,19 +12778,19 @@
         <v>82</v>
       </c>
       <c r="AI92" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL92" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AJ92" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL92" t="s" s="2">
+      <c r="AM92" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>80</v>
@@ -12804,10 +12801,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B93" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12818,7 +12815,7 @@
         <v>81</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>80</v>
@@ -12830,13 +12827,13 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12887,13 +12884,13 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>80</v>
@@ -12905,7 +12902,7 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
@@ -12919,14 +12916,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B94" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12945,16 +12942,16 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L94" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="M94" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12992,19 +12989,19 @@
         <v>80</v>
       </c>
       <c r="AB94" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AC94" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AC94" t="s" s="2">
+      <c r="AD94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE94" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AD94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE94" t="s" s="2">
+      <c r="AF94" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13016,13 +13013,13 @@
         <v>80</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
@@ -13034,12 +13031,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B95" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13047,31 +13044,31 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H95" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="I95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J95" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H95" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K95" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13121,25 +13118,25 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI95" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AG95" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="AJ95" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
@@ -13153,10 +13150,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B96" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13167,28 +13164,28 @@
         <v>81</v>
       </c>
       <c r="G96" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J96" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K96" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M96" t="s" s="2">
+      <c r="N96" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13214,49 +13211,49 @@
         <v>80</v>
       </c>
       <c r="X96" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y96" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Y96" t="s" s="2">
+      <c r="Z96" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Z96" t="s" s="2">
+      <c r="AA96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF96" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AA96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
@@ -13270,10 +13267,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B97" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13284,28 +13281,28 @@
         <v>81</v>
       </c>
       <c r="G97" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J97" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K97" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13355,25 +13352,25 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL97" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>80</v>
@@ -13387,10 +13384,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B98" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13401,28 +13398,28 @@
         <v>81</v>
       </c>
       <c r="G98" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J98" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K98" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13472,25 +13469,25 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
@@ -13502,15 +13499,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C99" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>80</v>
@@ -13523,7 +13520,7 @@
         <v>82</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>80</v>
@@ -13532,16 +13529,16 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M99" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13591,7 +13588,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -13600,19 +13597,19 @@
         <v>82</v>
       </c>
       <c r="AI99" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL99" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="AJ99" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL99" t="s" s="2">
+      <c r="AM99" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>80</v>
@@ -13623,10 +13620,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13637,7 +13634,7 @@
         <v>81</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>80</v>
@@ -13649,13 +13646,13 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13706,13 +13703,13 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>80</v>
@@ -13724,7 +13721,7 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>80</v>
@@ -13738,14 +13735,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -13764,16 +13761,16 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L101" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="M101" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13811,19 +13808,19 @@
         <v>80</v>
       </c>
       <c r="AB101" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AC101" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AC101" t="s" s="2">
+      <c r="AD101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE101" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AD101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE101" t="s" s="2">
+      <c r="AF101" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -13835,13 +13832,13 @@
         <v>80</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
@@ -13853,12 +13850,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13866,31 +13863,31 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H102" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="I102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J102" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H102" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K102" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13940,25 +13937,25 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI102" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AG102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="AJ102" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>
@@ -13972,10 +13969,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13986,28 +13983,28 @@
         <v>81</v>
       </c>
       <c r="G103" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J103" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K103" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14033,49 +14030,49 @@
         <v>80</v>
       </c>
       <c r="X103" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y103" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Y103" t="s" s="2">
+      <c r="Z103" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="Z103" t="s" s="2">
+      <c r="AA103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF103" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AA103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
@@ -14089,10 +14086,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14103,28 +14100,28 @@
         <v>81</v>
       </c>
       <c r="G104" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J104" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K104" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14174,25 +14171,25 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL104" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>80</v>
@@ -14206,10 +14203,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14220,28 +14217,28 @@
         <v>81</v>
       </c>
       <c r="G105" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J105" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="H105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>94</v>
-      </c>
       <c r="K105" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14291,25 +14288,25 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>80</v>
@@ -14323,10 +14320,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14337,7 +14334,7 @@
         <v>81</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>80</v>
@@ -14349,19 +14346,19 @@
         <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>80</v>
@@ -14386,52 +14383,52 @@
         <v>80</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y106" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z106" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Z106" t="s" s="2">
+      <c r="AA106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL106" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="AA106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>474</v>
-      </c>
       <c r="AM106" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>80</v>
@@ -14442,10 +14439,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14471,13 +14468,13 @@
         <v>80</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14527,7 +14524,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -14536,19 +14533,19 @@
         <v>82</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>80</v>
@@ -14559,12 +14556,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO107">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
